--- a/doc/04_外部設計書_今日はどっち派？.xlsx
+++ b/doc/04_外部設計書_今日はどっち派？.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\6月配布物\6月配布物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98571AE9-21AD-40CC-A380-964D0481C114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D9F7F0-CF6A-4EFB-A6D4-2E518E629598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -363,14 +363,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>メールアドレス</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>adress</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>都道府県</t>
     <rPh sb="0" eb="4">
       <t>トドウフケン</t>
@@ -387,10 +379,6 @@
   </si>
   <si>
     <t>パスワード</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>free_space</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -507,6 +495,18 @@
   </si>
   <si>
     <t>login</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>freespace</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>prefecture</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -949,26 +949,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1003,9 +989,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1024,14 +1007,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2731,8 +2731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Y86" sqref="Y86"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="P83" sqref="P83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2741,154 +2741,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="42"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="49">
+      <c r="X2" s="44"/>
+      <c r="Y2" s="45">
         <v>44719</v>
       </c>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="48"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -3487,7 +3487,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="9"/>
@@ -4456,8 +4456,8 @@
     <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="48" t="s">
-        <v>57</v>
+      <c r="C42" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -4504,7 +4504,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -4587,14 +4587,14 @@
     </row>
     <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
-      <c r="B45" s="47" t="s">
-        <v>56</v>
+      <c r="B45" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="C45" s="9">
         <v>3</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -4677,8 +4677,8 @@
     </row>
     <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
-      <c r="B47" s="47" t="s">
-        <v>55</v>
+      <c r="B47" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C47" s="10">
         <v>4</v>
@@ -4855,8 +4855,8 @@
     </row>
     <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
-      <c r="B51" s="47" t="s">
-        <v>55</v>
+      <c r="B51" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C51" s="10">
         <v>6</v>
@@ -6145,7 +6145,7 @@
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
@@ -6154,7 +6154,7 @@
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
       <c r="AD80" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AE80" s="17"/>
       <c r="AF80" s="17"/>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
@@ -6236,7 +6236,7 @@
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
@@ -6286,19 +6286,19 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
@@ -6311,7 +6311,7 @@
       <c r="U83" s="16"/>
       <c r="V83" s="19"/>
       <c r="W83" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
@@ -6338,13 +6338,13 @@
         <v>6</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
@@ -6367,7 +6367,7 @@
       </c>
       <c r="V84" s="19"/>
       <c r="W84" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
@@ -6394,19 +6394,19 @@
         <v>7</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="V85" s="19"/>
       <c r="W85" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="X85" s="17"/>
       <c r="Y85" s="17"/>
@@ -6450,7 +6450,7 @@
         <v>8</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
@@ -6462,7 +6462,7 @@
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
